--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
+++ b/Logging_JONKOPINGS_LAN/Översikt JÖNKÖPINGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45113</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45113</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45116</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45116</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45117</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45117</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>45118</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>45118</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45118</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45118</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>45118</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>45118</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45119</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45119</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>45119</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45119</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>45119</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>45119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>45120</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45120</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45120</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45120</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>45121</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45121</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45122</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45123</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45123</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45124</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45124</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45124</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45124</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45126</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45126</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45127</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45127</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45127</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45128</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>45130</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>45132</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45132</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45132</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45132</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45132</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45133</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45133</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45133</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45133</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45134</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45135</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45135</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45135</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>45135</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45135</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45135</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
